--- a/Code/Results/Cases/Case_3_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.09891449013571</v>
+        <v>12.92745816989022</v>
       </c>
       <c r="C2">
-        <v>14.99772167844935</v>
+        <v>8.878632296859205</v>
       </c>
       <c r="D2">
-        <v>8.284354213317178</v>
+        <v>11.67128436937264</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.89979419686448</v>
+        <v>26.99214720608759</v>
       </c>
       <c r="G2">
-        <v>17.0256670411767</v>
+        <v>23.30384877354595</v>
       </c>
       <c r="H2">
-        <v>7.406783153943714</v>
+        <v>12.97674337305346</v>
       </c>
       <c r="I2">
-        <v>9.883577911763455</v>
+        <v>17.98293395393583</v>
       </c>
       <c r="J2">
-        <v>6.412932814417655</v>
+        <v>11.18012835938675</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.32086088425372</v>
+        <v>16.99044094625025</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.52178715766945</v>
+        <v>19.01279945314569</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7691175136769</v>
+        <v>12.24468236580213</v>
       </c>
       <c r="C3">
-        <v>14.10992486087265</v>
+        <v>8.38114597930022</v>
       </c>
       <c r="D3">
-        <v>8.031278857841441</v>
+        <v>11.65138050341772</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.68977684361808</v>
+        <v>27.08882657028675</v>
       </c>
       <c r="G3">
-        <v>16.71187066024898</v>
+        <v>23.41569490584683</v>
       </c>
       <c r="H3">
-        <v>7.495664012997175</v>
+        <v>13.03556201886477</v>
       </c>
       <c r="I3">
-        <v>10.25269796342488</v>
+        <v>18.12221199475418</v>
       </c>
       <c r="J3">
-        <v>6.453754061748808</v>
+        <v>11.21838131080659</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.39505629326321</v>
+        <v>16.75020216162569</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.57593747486825</v>
+        <v>19.11276744880146</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.90550327058691</v>
+        <v>11.80471645433323</v>
       </c>
       <c r="C4">
-        <v>13.53545501015022</v>
+        <v>8.058956799081491</v>
       </c>
       <c r="D4">
-        <v>7.875772117778906</v>
+        <v>11.64106690495509</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.58236068349927</v>
+        <v>27.1563036661109</v>
       </c>
       <c r="G4">
-        <v>16.55082504865341</v>
+        <v>23.49511042110593</v>
       </c>
       <c r="H4">
-        <v>7.556610257546784</v>
+        <v>13.07419759309531</v>
       </c>
       <c r="I4">
-        <v>10.48804528814705</v>
+        <v>18.21223500421915</v>
       </c>
       <c r="J4">
-        <v>6.483105950373651</v>
+        <v>11.24364619219943</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.80030463926707</v>
+        <v>16.60251132205486</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.6248400930903</v>
+        <v>19.17938574375971</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54174505526402</v>
+        <v>11.62036120828704</v>
       </c>
       <c r="C5">
-        <v>13.294046924153</v>
+        <v>7.923524502004343</v>
       </c>
       <c r="D5">
-        <v>7.81246139956156</v>
+        <v>11.63734694334342</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.54387729202502</v>
+        <v>27.18583383998264</v>
       </c>
       <c r="G5">
-        <v>16.49298421793426</v>
+        <v>23.5301530517529</v>
       </c>
       <c r="H5">
-        <v>7.582980536125876</v>
+        <v>13.0905755579926</v>
       </c>
       <c r="I5">
-        <v>10.58609950820637</v>
+        <v>18.25005511412991</v>
       </c>
       <c r="J5">
-        <v>6.496107229376073</v>
+        <v>11.2543887888328</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.55149802730438</v>
+        <v>16.54234232437386</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.64850622579521</v>
+        <v>19.20784635036433</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48062979796436</v>
+        <v>11.58944815478424</v>
       </c>
       <c r="C6">
-        <v>13.25352266343687</v>
+        <v>7.90078851673079</v>
       </c>
       <c r="D6">
-        <v>7.801954996285391</v>
+        <v>11.63675850233528</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.53780254233644</v>
+        <v>27.19085983097158</v>
       </c>
       <c r="G6">
-        <v>16.48384416942252</v>
+        <v>23.53613310003238</v>
       </c>
       <c r="H6">
-        <v>7.587450041669618</v>
+        <v>13.09333337252878</v>
       </c>
       <c r="I6">
-        <v>10.60251007468623</v>
+        <v>18.25640372549692</v>
       </c>
       <c r="J6">
-        <v>6.498327821428246</v>
+        <v>11.25619958396736</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.50980078240965</v>
+        <v>16.53235411617023</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.65265595118402</v>
+        <v>19.21265140671904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.90064535457115</v>
+        <v>11.80225046659981</v>
       </c>
       <c r="C7">
-        <v>13.53222876437563</v>
+        <v>8.057146961353979</v>
       </c>
       <c r="D7">
-        <v>7.87491792492383</v>
+        <v>11.64101477687984</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.58182044744571</v>
+        <v>27.15669370091639</v>
       </c>
       <c r="G7">
-        <v>16.55001371880268</v>
+        <v>23.49557219472162</v>
       </c>
       <c r="H7">
-        <v>7.556959771793379</v>
+        <v>13.07441590665956</v>
       </c>
       <c r="I7">
-        <v>10.48935903027792</v>
+        <v>18.21274046118909</v>
       </c>
       <c r="J7">
-        <v>6.483277127766461</v>
+        <v>11.24378926090933</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.79697496383188</v>
+        <v>16.60169971364236</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.62514438952755</v>
+        <v>19.17976426189849</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65018439133867</v>
+        <v>12.69642238663898</v>
       </c>
       <c r="C8">
-        <v>14.6977409634135</v>
+        <v>8.710608417005828</v>
       </c>
       <c r="D8">
-        <v>8.19717004062653</v>
+        <v>11.66402768043393</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.82284166271404</v>
+        <v>27.02379316844298</v>
       </c>
       <c r="G8">
-        <v>16.9108228997189</v>
+        <v>23.34017165570012</v>
       </c>
       <c r="H8">
-        <v>7.436064143452048</v>
+        <v>12.99650075561448</v>
       </c>
       <c r="I8">
-        <v>10.00901567334024</v>
+        <v>18.03002306053029</v>
       </c>
       <c r="J8">
-        <v>6.426094823499137</v>
+        <v>11.19294907924986</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.00719493388253</v>
+        <v>16.90768186568325</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.53708968642373</v>
+        <v>19.04617901804529</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70728628134428</v>
+        <v>14.28011124703433</v>
       </c>
       <c r="C9">
-        <v>16.74815325958338</v>
+        <v>9.856964676308854</v>
       </c>
       <c r="D9">
-        <v>8.824550736038695</v>
+        <v>11.72413399656707</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.47084361980381</v>
+        <v>26.82790898720794</v>
       </c>
       <c r="G9">
-        <v>17.87391570050482</v>
+        <v>23.12154462358835</v>
       </c>
       <c r="H9">
-        <v>7.252835589084001</v>
+        <v>12.86371849996728</v>
       </c>
       <c r="I9">
-        <v>9.138610610878031</v>
+        <v>17.7073737730437</v>
       </c>
       <c r="J9">
-        <v>6.349754936903905</v>
+        <v>11.10735424716408</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.259836047605</v>
+        <v>17.50355478417486</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.49745229454778</v>
+        <v>18.82595064448885</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.72665363698999</v>
+        <v>15.33468952391047</v>
       </c>
       <c r="C10">
-        <v>18.10956061008869</v>
+        <v>10.61453664811084</v>
       </c>
       <c r="D10">
-        <v>9.278336215830008</v>
+        <v>11.77719616804269</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.0584136959421</v>
+        <v>26.72389220825686</v>
       </c>
       <c r="G10">
-        <v>18.73992957892322</v>
+        <v>23.01454454667739</v>
       </c>
       <c r="H10">
-        <v>7.155880154642236</v>
+        <v>12.77837324204512</v>
       </c>
       <c r="I10">
-        <v>8.547430446244187</v>
+        <v>17.49193257207187</v>
       </c>
       <c r="J10">
-        <v>6.318036152015869</v>
+        <v>11.05306443624628</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.85152798019485</v>
+        <v>17.93526117822119</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.56125582968695</v>
+        <v>18.68982740839632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.59656193479021</v>
+        <v>15.78998975504276</v>
       </c>
       <c r="C11">
-        <v>18.69733945253011</v>
+        <v>10.94048807507617</v>
       </c>
       <c r="D11">
-        <v>9.482443689005107</v>
+        <v>11.80321309004099</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.35048688103053</v>
+        <v>26.68531887119588</v>
       </c>
       <c r="G11">
-        <v>19.16798259604633</v>
+        <v>22.97772591275043</v>
       </c>
       <c r="H11">
-        <v>7.121092047710054</v>
+        <v>12.74220172907848</v>
       </c>
       <c r="I11">
-        <v>8.290503648249897</v>
+        <v>17.39858837364477</v>
       </c>
       <c r="J11">
-        <v>6.309478584613195</v>
+        <v>11.03023330939697</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.53748880034039</v>
+        <v>18.12961148119883</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.61286548104132</v>
+        <v>18.63352817414659</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.91901593135967</v>
+        <v>15.95883800885041</v>
       </c>
       <c r="C12">
-        <v>18.91538854963588</v>
+        <v>11.06121529429998</v>
       </c>
       <c r="D12">
-        <v>9.559345263465058</v>
+        <v>11.81332994886474</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.46467295500972</v>
+        <v>26.6719754881345</v>
       </c>
       <c r="G12">
-        <v>19.33490742512258</v>
+        <v>22.96550393625501</v>
       </c>
       <c r="H12">
-        <v>7.1093595608528</v>
+        <v>12.72888630255498</v>
       </c>
       <c r="I12">
-        <v>8.195114059978854</v>
+        <v>17.3639098047311</v>
       </c>
       <c r="J12">
-        <v>6.307132463181819</v>
+        <v>11.02185607718751</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.79181826938862</v>
+        <v>18.20285620827853</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.63584107638973</v>
+        <v>18.61302208289314</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.84987854105702</v>
+        <v>15.92263271850637</v>
       </c>
       <c r="C13">
-        <v>18.86862908690668</v>
+        <v>11.03533500521122</v>
       </c>
       <c r="D13">
-        <v>9.542801258933368</v>
+        <v>11.81113941275869</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.43992134411625</v>
+        <v>26.67479293980368</v>
       </c>
       <c r="G13">
-        <v>19.29874370684793</v>
+        <v>22.96805941047626</v>
       </c>
       <c r="H13">
-        <v>7.111820608820925</v>
+        <v>12.73173702250732</v>
       </c>
       <c r="I13">
-        <v>8.215569964335064</v>
+        <v>17.37134872920502</v>
       </c>
       <c r="J13">
-        <v>6.307597145877432</v>
+        <v>11.02364832351458</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.73728447407858</v>
+        <v>18.18709819333112</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.63073741695353</v>
+        <v>18.6174021976256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.62322966338375</v>
+        <v>15.80395268245024</v>
       </c>
       <c r="C14">
-        <v>18.71536921515139</v>
+        <v>10.95047464550687</v>
       </c>
       <c r="D14">
-        <v>9.488778524722383</v>
+        <v>11.80404013445482</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.3598091340469</v>
+        <v>26.68419574801921</v>
       </c>
       <c r="G14">
-        <v>19.18161928031279</v>
+        <v>22.97668583998792</v>
       </c>
       <c r="H14">
-        <v>7.120097331787874</v>
+        <v>12.74109860322235</v>
       </c>
       <c r="I14">
-        <v>8.282616572859082</v>
+        <v>17.39572194988716</v>
       </c>
       <c r="J14">
-        <v>6.309267348750601</v>
+        <v>11.02953872903864</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.55852113946471</v>
+        <v>18.13564474321645</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.61468589801255</v>
+        <v>18.63182480213611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.4834955055043</v>
+        <v>15.73079227411165</v>
       </c>
       <c r="C15">
-        <v>18.62090345687224</v>
+        <v>10.89814269028803</v>
       </c>
       <c r="D15">
-        <v>9.455635798803396</v>
+        <v>11.79972594471167</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.3112052482678</v>
+        <v>26.69011995438295</v>
       </c>
       <c r="G15">
-        <v>19.11050374745891</v>
+        <v>22.98219426270539</v>
       </c>
       <c r="H15">
-        <v>7.125357813529797</v>
+        <v>12.74688259739747</v>
       </c>
       <c r="I15">
-        <v>8.323938414299427</v>
+        <v>17.41073831527423</v>
       </c>
       <c r="J15">
-        <v>6.310408395451415</v>
+        <v>11.03318173329737</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.44831799234777</v>
+        <v>18.10408053206849</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.6053061161907</v>
+        <v>18.64076510040203</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.66882641812118</v>
+        <v>15.30443834283732</v>
       </c>
       <c r="C16">
-        <v>18.07051353498965</v>
+        <v>10.59285752077087</v>
       </c>
       <c r="D16">
-        <v>9.264945658680563</v>
+        <v>11.77553325557086</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.03982680634026</v>
+        <v>26.72658955910694</v>
       </c>
       <c r="G16">
-        <v>18.71263571517489</v>
+        <v>23.0171906727426</v>
       </c>
       <c r="H16">
-        <v>7.158349665247343</v>
+        <v>12.78079055378608</v>
       </c>
       <c r="I16">
-        <v>8.564476876530598</v>
+        <v>17.49812650615499</v>
       </c>
       <c r="J16">
-        <v>6.318717805704627</v>
+        <v>11.05459405720388</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.80593626029258</v>
+        <v>17.92251389554765</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.55835351804542</v>
+        <v>18.6936202480067</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.1566055854282</v>
+        <v>15.03658647499306</v>
       </c>
       <c r="C17">
-        <v>17.72479116411355</v>
+        <v>10.40077767823226</v>
       </c>
       <c r="D17">
-        <v>9.147326711076415</v>
+        <v>11.76116929881259</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.87971179331282</v>
+        <v>26.75120664481426</v>
       </c>
       <c r="G17">
-        <v>18.47724531350273</v>
+        <v>23.04170805624926</v>
       </c>
       <c r="H17">
-        <v>7.1810459184341</v>
+        <v>12.80227171009441</v>
       </c>
       <c r="I17">
-        <v>8.715226141620731</v>
+        <v>17.55292912397366</v>
       </c>
       <c r="J17">
-        <v>6.325354325129043</v>
+        <v>11.0682077508705</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.40213050946037</v>
+        <v>17.81056483983524</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.53546903400393</v>
+        <v>18.72748879278874</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.85740163124171</v>
+        <v>14.88022767122817</v>
       </c>
       <c r="C18">
-        <v>17.52297196240301</v>
+        <v>10.28854166501681</v>
       </c>
       <c r="D18">
-        <v>9.079459695292023</v>
+        <v>11.75308469957798</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.78995050635686</v>
+        <v>26.76618848242287</v>
       </c>
       <c r="G18">
-        <v>18.34507062611464</v>
+        <v>23.05692494109301</v>
       </c>
       <c r="H18">
-        <v>7.194970829729426</v>
+        <v>12.81487673391506</v>
       </c>
       <c r="I18">
-        <v>8.803050040322301</v>
+        <v>17.58488894313254</v>
       </c>
       <c r="J18">
-        <v>6.329721021743237</v>
+        <v>11.07621357527466</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.16628194043403</v>
+        <v>17.74598654120186</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.5244219252044</v>
+        <v>18.74749816520388</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.75530710120145</v>
+        <v>14.82689440234465</v>
       </c>
       <c r="C19">
-        <v>17.45412956452516</v>
+        <v>10.25023940854327</v>
       </c>
       <c r="D19">
-        <v>9.056445864383409</v>
+        <v>11.75037797966451</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.75995866081411</v>
+        <v>26.77140218696916</v>
       </c>
       <c r="G19">
-        <v>18.30087270287907</v>
+        <v>23.06226814302904</v>
       </c>
       <c r="H19">
-        <v>7.19983209498397</v>
+        <v>12.8191874373383</v>
       </c>
       <c r="I19">
-        <v>8.832972855393525</v>
+        <v>17.59578539757313</v>
       </c>
       <c r="J19">
-        <v>6.331292394948987</v>
+        <v>11.07895436269936</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.08580956366773</v>
+        <v>17.72409095085926</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.52103908547067</v>
+        <v>18.75436372777887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.21160692420169</v>
+        <v>15.06533794829692</v>
       </c>
       <c r="C20">
-        <v>17.76190116111884</v>
+        <v>10.42140687570471</v>
       </c>
       <c r="D20">
-        <v>9.159870201515126</v>
+        <v>11.762680067914</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.89651470062685</v>
+        <v>26.74850091750965</v>
       </c>
       <c r="G20">
-        <v>18.50197067879736</v>
+        <v>23.03898260911762</v>
       </c>
       <c r="H20">
-        <v>7.1785390398422</v>
+        <v>12.79995916478779</v>
       </c>
       <c r="I20">
-        <v>8.699061889623469</v>
+        <v>17.54704988769277</v>
       </c>
       <c r="J20">
-        <v>6.324590622507841</v>
+        <v>11.06674037616465</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.44548753474832</v>
+        <v>17.82250191540295</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.537684813156</v>
+        <v>18.72382863780362</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.68999048378742</v>
+        <v>15.83890896234934</v>
       </c>
       <c r="C21">
-        <v>18.76050821971873</v>
+        <v>10.97547368375679</v>
       </c>
       <c r="D21">
-        <v>9.504657286645408</v>
+        <v>11.80611822160124</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.38324265897482</v>
+        <v>26.68139957894362</v>
       </c>
       <c r="G21">
-        <v>19.2158911450805</v>
+        <v>22.97410524051635</v>
       </c>
       <c r="H21">
-        <v>7.117626318088163</v>
+        <v>12.73833851004383</v>
       </c>
       <c r="I21">
-        <v>8.26287007286634</v>
+        <v>17.38854480251345</v>
       </c>
       <c r="J21">
-        <v>6.308752086976027</v>
+        <v>11.02780128807609</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.61117518171552</v>
+        <v>18.15076786700119</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.6193060604089</v>
+        <v>18.6275664276721</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.61564803545107</v>
+        <v>16.32369219793208</v>
       </c>
       <c r="C22">
-        <v>19.38675930126609</v>
+        <v>11.32182523065465</v>
       </c>
       <c r="D22">
-        <v>9.727705012840273</v>
+        <v>11.83604842532909</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.72224037890307</v>
+        <v>26.64491200686575</v>
       </c>
       <c r="G22">
-        <v>19.71058936799456</v>
+        <v>22.94173821869909</v>
       </c>
       <c r="H22">
-        <v>7.086266047170413</v>
+        <v>12.70029234744181</v>
       </c>
       <c r="I22">
-        <v>7.989003058058398</v>
+        <v>17.28885055449681</v>
       </c>
       <c r="J22">
-        <v>6.303638616465055</v>
+        <v>11.00391697389457</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.34140128290162</v>
+        <v>18.36323403177831</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.69273209785705</v>
+        <v>18.56939556807368</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.12530159819019</v>
+        <v>16.06687051629937</v>
       </c>
       <c r="C23">
-        <v>19.05492895679427</v>
+        <v>11.13841799576927</v>
       </c>
       <c r="D23">
-        <v>9.608886187184675</v>
+        <v>11.8199349639254</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.53939575859377</v>
+        <v>26.66371018384209</v>
       </c>
       <c r="G23">
-        <v>19.44401625683018</v>
+        <v>22.95809027977729</v>
       </c>
       <c r="H23">
-        <v>7.10219577194718</v>
+        <v>12.72039439876917</v>
       </c>
       <c r="I23">
-        <v>8.134074386352072</v>
+        <v>17.3417030301787</v>
       </c>
       <c r="J23">
-        <v>6.305871510235833</v>
+        <v>11.0165212667478</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.95454115929729</v>
+        <v>18.25004553873293</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.65164800137122</v>
+        <v>18.60000707316005</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.18675552817441</v>
+        <v>15.05234677656864</v>
       </c>
       <c r="C24">
-        <v>17.74513325919819</v>
+        <v>10.41208604174223</v>
       </c>
       <c r="D24">
-        <v>9.154200052396591</v>
+        <v>11.76199650858811</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.88891097204792</v>
+        <v>26.74972159455259</v>
       </c>
       <c r="G24">
-        <v>18.49078251055026</v>
+        <v>23.04021129152765</v>
       </c>
       <c r="H24">
-        <v>7.179669677052882</v>
+        <v>12.80100387155337</v>
       </c>
       <c r="I24">
-        <v>8.706366159574895</v>
+        <v>17.54970647902338</v>
       </c>
       <c r="J24">
-        <v>6.324934179146541</v>
+        <v>11.06740321829899</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.42589733734363</v>
+        <v>17.81710583586217</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.53667650295782</v>
+        <v>18.72548171869391</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9201951720963</v>
+        <v>13.87049492967503</v>
       </c>
       <c r="C25">
-        <v>16.21886801284817</v>
+        <v>9.561582368614641</v>
       </c>
       <c r="D25">
-        <v>8.655793836478615</v>
+        <v>11.70629246321568</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.27621469882552</v>
+        <v>26.87392366772989</v>
       </c>
       <c r="G25">
-        <v>17.58556201826435</v>
+        <v>23.17134862623188</v>
       </c>
       <c r="H25">
-        <v>7.296158610662618</v>
+        <v>12.89749637646021</v>
       </c>
       <c r="I25">
-        <v>9.366013453666167</v>
+        <v>17.79085503259386</v>
       </c>
       <c r="J25">
-        <v>6.366318197590402</v>
+        <v>11.12900022184246</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.63957347453715</v>
+        <v>17.34317179109349</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.4926952521483</v>
+        <v>18.88103600722202</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_83/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_83/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.92745816989022</v>
+        <v>21.0989144901357</v>
       </c>
       <c r="C2">
-        <v>8.878632296859205</v>
+        <v>14.9977216784493</v>
       </c>
       <c r="D2">
-        <v>11.67128436937264</v>
+        <v>8.284354213317377</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.99214720608759</v>
+        <v>17.89979419686466</v>
       </c>
       <c r="G2">
-        <v>23.30384877354595</v>
+        <v>17.02566704117664</v>
       </c>
       <c r="H2">
-        <v>12.97674337305346</v>
+        <v>7.406783153943779</v>
       </c>
       <c r="I2">
-        <v>17.98293395393583</v>
+        <v>9.883577911763492</v>
       </c>
       <c r="J2">
-        <v>11.18012835938675</v>
+        <v>6.412932814417598</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.99044094625025</v>
+        <v>16.32086088425373</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.01279945314569</v>
+        <v>11.52178715766951</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.24468236580213</v>
+        <v>19.76911751367689</v>
       </c>
       <c r="C3">
-        <v>8.38114597930022</v>
+        <v>14.1099248608727</v>
       </c>
       <c r="D3">
-        <v>11.65138050341772</v>
+        <v>8.031278857841379</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.08882657028675</v>
+        <v>17.68977684361797</v>
       </c>
       <c r="G3">
-        <v>23.41569490584683</v>
+        <v>16.71187066024897</v>
       </c>
       <c r="H3">
-        <v>13.03556201886477</v>
+        <v>7.495664012997126</v>
       </c>
       <c r="I3">
-        <v>18.12221199475418</v>
+        <v>10.25269796342485</v>
       </c>
       <c r="J3">
-        <v>11.21838131080659</v>
+        <v>6.453754061748778</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.75020216162569</v>
+        <v>15.39505629326318</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.11276744880146</v>
+        <v>11.57593747486817</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.80471645433323</v>
+        <v>18.90550327058689</v>
       </c>
       <c r="C4">
-        <v>8.058956799081491</v>
+        <v>13.53545501015018</v>
       </c>
       <c r="D4">
-        <v>11.64106690495509</v>
+        <v>7.87577211777894</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.1563036661109</v>
+        <v>17.58236068349933</v>
       </c>
       <c r="G4">
-        <v>23.49511042110593</v>
+        <v>16.5508250486536</v>
       </c>
       <c r="H4">
-        <v>13.07419759309531</v>
+        <v>7.55661025754679</v>
       </c>
       <c r="I4">
-        <v>18.21223500421915</v>
+        <v>10.48804528814716</v>
       </c>
       <c r="J4">
-        <v>11.24364619219943</v>
+        <v>6.48310595037359</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.60251132205486</v>
+        <v>14.80030463926707</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.17938574375971</v>
+        <v>11.62484009309037</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.62036120828704</v>
+        <v>18.54174505526402</v>
       </c>
       <c r="C5">
-        <v>7.923524502004343</v>
+        <v>13.29404692415289</v>
       </c>
       <c r="D5">
-        <v>11.63734694334342</v>
+        <v>7.812461399561617</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.18583383998264</v>
+        <v>17.54387729202522</v>
       </c>
       <c r="G5">
-        <v>23.5301530517529</v>
+        <v>16.49298421793451</v>
       </c>
       <c r="H5">
-        <v>13.0905755579926</v>
+        <v>7.582980536125884</v>
       </c>
       <c r="I5">
-        <v>18.25005511412991</v>
+        <v>10.58609950820647</v>
       </c>
       <c r="J5">
-        <v>11.2543887888328</v>
+        <v>6.496107229376019</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.54234232437386</v>
+        <v>14.55149802730436</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.20784635036433</v>
+        <v>11.64850622579536</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.58944815478424</v>
+        <v>18.48062979796431</v>
       </c>
       <c r="C6">
-        <v>7.90078851673079</v>
+        <v>13.25352266343686</v>
       </c>
       <c r="D6">
-        <v>11.63675850233528</v>
+        <v>7.801954996285411</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.19085983097158</v>
+        <v>17.53780254233656</v>
       </c>
       <c r="G6">
-        <v>23.53613310003238</v>
+        <v>16.48384416942286</v>
       </c>
       <c r="H6">
-        <v>13.09333337252878</v>
+        <v>7.587450041669502</v>
       </c>
       <c r="I6">
-        <v>18.25640372549692</v>
+        <v>10.60251007468633</v>
       </c>
       <c r="J6">
-        <v>11.25619958396736</v>
+        <v>6.498327821428275</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.53235411617023</v>
+        <v>14.50980078240969</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.21265140671904</v>
+        <v>11.65265595118414</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.80225046659981</v>
+        <v>18.90064535457115</v>
       </c>
       <c r="C7">
-        <v>8.057146961353979</v>
+        <v>13.5322287643756</v>
       </c>
       <c r="D7">
-        <v>11.64101477687984</v>
+        <v>7.874917924923751</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.15669370091639</v>
+        <v>17.58182044744566</v>
       </c>
       <c r="G7">
-        <v>23.49557219472162</v>
+        <v>16.55001371880267</v>
       </c>
       <c r="H7">
-        <v>13.07441590665956</v>
+        <v>7.556959771793379</v>
       </c>
       <c r="I7">
-        <v>18.21274046118909</v>
+        <v>10.48935903027792</v>
       </c>
       <c r="J7">
-        <v>11.24378926090933</v>
+        <v>6.483277127766433</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.60169971364236</v>
+        <v>14.79697496383186</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.17976426189849</v>
+        <v>11.62514438952754</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.69642238663898</v>
+        <v>20.65018439133862</v>
       </c>
       <c r="C8">
-        <v>8.710608417005828</v>
+        <v>14.69774096341344</v>
       </c>
       <c r="D8">
-        <v>11.66402768043393</v>
+        <v>8.197170040626442</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.02379316844298</v>
+        <v>17.82284166271406</v>
       </c>
       <c r="G8">
-        <v>23.34017165570012</v>
+        <v>16.91082289971898</v>
       </c>
       <c r="H8">
-        <v>12.99650075561448</v>
+        <v>7.436064143452111</v>
       </c>
       <c r="I8">
-        <v>18.03002306053029</v>
+        <v>10.00901567334034</v>
       </c>
       <c r="J8">
-        <v>11.19294907924986</v>
+        <v>6.426094823499142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.90768186568325</v>
+        <v>16.00719493388252</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.04617901804529</v>
+        <v>11.5370896864238</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.28011124703433</v>
+        <v>23.70728628134432</v>
       </c>
       <c r="C9">
-        <v>9.856964676308854</v>
+        <v>16.74815325958329</v>
       </c>
       <c r="D9">
-        <v>11.72413399656707</v>
+        <v>8.824550736038683</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.82790898720794</v>
+        <v>18.47084361980382</v>
       </c>
       <c r="G9">
-        <v>23.12154462358835</v>
+        <v>17.87391570050484</v>
       </c>
       <c r="H9">
-        <v>12.86371849996728</v>
+        <v>7.252835589083998</v>
       </c>
       <c r="I9">
-        <v>17.7073737730437</v>
+        <v>9.138610610878093</v>
       </c>
       <c r="J9">
-        <v>11.10735424716408</v>
+        <v>6.349754936903876</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.50355478417486</v>
+        <v>18.25983604760499</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.82595064448885</v>
+        <v>11.49745229454781</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.33468952391047</v>
+        <v>25.72665363698994</v>
       </c>
       <c r="C10">
-        <v>10.61453664811084</v>
+        <v>18.10956061008861</v>
       </c>
       <c r="D10">
-        <v>11.77719616804269</v>
+        <v>9.278336215830061</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.72389220825686</v>
+        <v>19.05841369594216</v>
       </c>
       <c r="G10">
-        <v>23.01454454667739</v>
+        <v>18.73992957892321</v>
       </c>
       <c r="H10">
-        <v>12.77837324204512</v>
+        <v>7.155880154642287</v>
       </c>
       <c r="I10">
-        <v>17.49193257207187</v>
+        <v>8.547430446244244</v>
       </c>
       <c r="J10">
-        <v>11.05306443624628</v>
+        <v>6.318036152015819</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.93526117822119</v>
+        <v>19.85152798019482</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.68982740839632</v>
+        <v>11.56125582968702</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.78998975504276</v>
+        <v>26.5965619347902</v>
       </c>
       <c r="C11">
-        <v>10.94048807507617</v>
+        <v>18.69733945253009</v>
       </c>
       <c r="D11">
-        <v>11.80321309004099</v>
+        <v>9.482443689005143</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.68531887119588</v>
+        <v>19.35048688103051</v>
       </c>
       <c r="G11">
-        <v>22.97772591275043</v>
+        <v>19.16798259604633</v>
       </c>
       <c r="H11">
-        <v>12.74220172907848</v>
+        <v>7.121092047710007</v>
       </c>
       <c r="I11">
-        <v>17.39858837364477</v>
+        <v>8.290503648249841</v>
       </c>
       <c r="J11">
-        <v>11.03023330939697</v>
+        <v>6.309478584613201</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.12961148119883</v>
+        <v>20.53748880034039</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.63352817414659</v>
+        <v>11.61286548104129</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.95883800885041</v>
+        <v>26.91901593135971</v>
       </c>
       <c r="C12">
-        <v>11.06121529429998</v>
+        <v>18.91538854963585</v>
       </c>
       <c r="D12">
-        <v>11.81332994886474</v>
+        <v>9.559345263464998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.6719754881345</v>
+        <v>19.4646729550096</v>
       </c>
       <c r="G12">
-        <v>22.96550393625501</v>
+        <v>19.33490742512255</v>
       </c>
       <c r="H12">
-        <v>12.72888630255498</v>
+        <v>7.109359560852707</v>
       </c>
       <c r="I12">
-        <v>17.3639098047311</v>
+        <v>8.195114059978728</v>
       </c>
       <c r="J12">
-        <v>11.02185607718751</v>
+        <v>6.307132463181932</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.20285620827853</v>
+        <v>20.79181826938863</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.61302208289314</v>
+        <v>11.63584107638964</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.92263271850637</v>
+        <v>26.84987854105699</v>
       </c>
       <c r="C13">
-        <v>11.03533500521122</v>
+        <v>18.86862908690665</v>
       </c>
       <c r="D13">
-        <v>11.81113941275869</v>
+        <v>9.542801258933286</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.67479293980368</v>
+        <v>19.43992134411634</v>
       </c>
       <c r="G13">
-        <v>22.96805941047626</v>
+        <v>19.29874370684808</v>
       </c>
       <c r="H13">
-        <v>12.73173702250732</v>
+        <v>7.111820608820985</v>
       </c>
       <c r="I13">
-        <v>17.37134872920502</v>
+        <v>8.215569964335263</v>
       </c>
       <c r="J13">
-        <v>11.02364832351458</v>
+        <v>6.307597145877433</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.18709819333112</v>
+        <v>20.73728447407854</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.6174021976256</v>
+        <v>11.63073741695365</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80395268245024</v>
+        <v>26.62322966338371</v>
       </c>
       <c r="C14">
-        <v>10.95047464550687</v>
+        <v>18.71536921515136</v>
       </c>
       <c r="D14">
-        <v>11.80404013445482</v>
+        <v>9.488778524722411</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.68419574801921</v>
+        <v>19.35980913404699</v>
       </c>
       <c r="G14">
-        <v>22.97668583998792</v>
+        <v>19.18161928031283</v>
       </c>
       <c r="H14">
-        <v>12.74109860322235</v>
+        <v>7.120097331787924</v>
       </c>
       <c r="I14">
-        <v>17.39572194988716</v>
+        <v>8.282616572859123</v>
       </c>
       <c r="J14">
-        <v>11.02953872903864</v>
+        <v>6.309267348750589</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.13564474321645</v>
+        <v>20.55852113946466</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.63182480213611</v>
+        <v>11.61468589801262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.73079227411165</v>
+        <v>26.48349550550427</v>
       </c>
       <c r="C15">
-        <v>10.89814269028803</v>
+        <v>18.62090345687225</v>
       </c>
       <c r="D15">
-        <v>11.79972594471167</v>
+        <v>9.455635798803437</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.69011995438295</v>
+        <v>19.31120524826785</v>
       </c>
       <c r="G15">
-        <v>22.98219426270539</v>
+        <v>19.11050374745892</v>
       </c>
       <c r="H15">
-        <v>12.74688259739747</v>
+        <v>7.125357813529839</v>
       </c>
       <c r="I15">
-        <v>17.41073831527423</v>
+        <v>8.323938414299512</v>
       </c>
       <c r="J15">
-        <v>11.03318173329737</v>
+        <v>6.310408395451443</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.10408053206849</v>
+        <v>20.44831799234773</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.64076510040203</v>
+        <v>11.60530611619074</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.30443834283732</v>
+        <v>25.66882641812114</v>
       </c>
       <c r="C16">
-        <v>10.59285752077087</v>
+        <v>18.07051353498968</v>
       </c>
       <c r="D16">
-        <v>11.77553325557086</v>
+        <v>9.264945658680602</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.72658955910694</v>
+        <v>19.03982680634035</v>
       </c>
       <c r="G16">
-        <v>23.0171906727426</v>
+        <v>18.71263571517498</v>
       </c>
       <c r="H16">
-        <v>12.78079055378608</v>
+        <v>7.158349665247457</v>
       </c>
       <c r="I16">
-        <v>17.49812650615499</v>
+        <v>8.564476876530771</v>
       </c>
       <c r="J16">
-        <v>11.05459405720388</v>
+        <v>6.31871780570463</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.92251389554765</v>
+        <v>19.80593626029255</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.6936202480067</v>
+        <v>11.55835351804553</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.03658647499306</v>
+        <v>25.15660558542818</v>
       </c>
       <c r="C17">
-        <v>10.40077767823226</v>
+        <v>17.72479116411353</v>
       </c>
       <c r="D17">
-        <v>11.76116929881259</v>
+        <v>9.147326711076394</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.75120664481426</v>
+        <v>18.8797117933128</v>
       </c>
       <c r="G17">
-        <v>23.04170805624926</v>
+        <v>18.47724531350267</v>
       </c>
       <c r="H17">
-        <v>12.80227171009441</v>
+        <v>7.181045918434144</v>
       </c>
       <c r="I17">
-        <v>17.55292912397366</v>
+        <v>8.715226141620731</v>
       </c>
       <c r="J17">
-        <v>11.0682077508705</v>
+        <v>6.325354325128996</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.81056483983524</v>
+        <v>19.40213050946036</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.72748879278874</v>
+        <v>11.53546903400392</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.88022767122817</v>
+        <v>24.85740163124167</v>
       </c>
       <c r="C18">
-        <v>10.28854166501681</v>
+        <v>17.52297196240299</v>
       </c>
       <c r="D18">
-        <v>11.75308469957798</v>
+        <v>9.079459695292</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.76618848242287</v>
+        <v>18.78995050635694</v>
       </c>
       <c r="G18">
-        <v>23.05692494109301</v>
+        <v>18.34507062611475</v>
       </c>
       <c r="H18">
-        <v>12.81487673391506</v>
+        <v>7.194970829729431</v>
       </c>
       <c r="I18">
-        <v>17.58488894313254</v>
+        <v>8.803050040322463</v>
       </c>
       <c r="J18">
-        <v>11.07621357527466</v>
+        <v>6.329721021743262</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.74598654120186</v>
+        <v>19.16628194043403</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.74749816520388</v>
+        <v>11.52442192520451</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.82689440234465</v>
+        <v>24.75530710120146</v>
       </c>
       <c r="C19">
-        <v>10.25023940854327</v>
+        <v>17.4541295645252</v>
       </c>
       <c r="D19">
-        <v>11.75037797966451</v>
+        <v>9.056445864383361</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.77140218696916</v>
+        <v>18.75995866081404</v>
       </c>
       <c r="G19">
-        <v>23.06226814302904</v>
+        <v>18.30087270287902</v>
       </c>
       <c r="H19">
-        <v>12.8191874373383</v>
+        <v>7.199832094983975</v>
       </c>
       <c r="I19">
-        <v>17.59578539757313</v>
+        <v>8.832972855393471</v>
       </c>
       <c r="J19">
-        <v>11.07895436269936</v>
+        <v>6.331292394949017</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.72409095085926</v>
+        <v>19.08580956366774</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.75436372777887</v>
+        <v>11.52103908547063</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.06533794829692</v>
+        <v>25.21160692420165</v>
       </c>
       <c r="C20">
-        <v>10.42140687570471</v>
+        <v>17.76190116111877</v>
       </c>
       <c r="D20">
-        <v>11.762680067914</v>
+        <v>9.159870201515114</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.74850091750965</v>
+        <v>18.89651470062689</v>
       </c>
       <c r="G20">
-        <v>23.03898260911762</v>
+        <v>18.5019706787974</v>
       </c>
       <c r="H20">
-        <v>12.79995916478779</v>
+        <v>7.178539039842299</v>
       </c>
       <c r="I20">
-        <v>17.54704988769277</v>
+        <v>8.699061889623561</v>
       </c>
       <c r="J20">
-        <v>11.06674037616465</v>
+        <v>6.324590622507841</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.82250191540295</v>
+        <v>19.44548753474833</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.72382863780362</v>
+        <v>11.53768481315605</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.83890896234934</v>
+        <v>26.68999048378746</v>
       </c>
       <c r="C21">
-        <v>10.97547368375679</v>
+        <v>18.76050821971863</v>
       </c>
       <c r="D21">
-        <v>11.80611822160124</v>
+        <v>9.504657286645395</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.68139957894362</v>
+        <v>19.3832426589748</v>
       </c>
       <c r="G21">
-        <v>22.97410524051635</v>
+        <v>19.21589114508053</v>
       </c>
       <c r="H21">
-        <v>12.73833851004383</v>
+        <v>7.117626318088163</v>
       </c>
       <c r="I21">
-        <v>17.38854480251345</v>
+        <v>8.262870072866287</v>
       </c>
       <c r="J21">
-        <v>11.02780128807609</v>
+        <v>6.308752086976055</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.15076786700119</v>
+        <v>20.61117518171552</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.6275664276721</v>
+        <v>11.61930606040891</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.32369219793208</v>
+        <v>27.61564803545101</v>
       </c>
       <c r="C22">
-        <v>11.32182523065465</v>
+        <v>19.3867593012661</v>
       </c>
       <c r="D22">
-        <v>11.83604842532909</v>
+        <v>9.727705012840284</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.64491200686575</v>
+        <v>19.72224037890301</v>
       </c>
       <c r="G22">
-        <v>22.94173821869909</v>
+        <v>19.71058936799447</v>
       </c>
       <c r="H22">
-        <v>12.70029234744181</v>
+        <v>7.086266047170363</v>
       </c>
       <c r="I22">
-        <v>17.28885055449681</v>
+        <v>7.989003058058243</v>
       </c>
       <c r="J22">
-        <v>11.00391697389457</v>
+        <v>6.303638616465107</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.36323403177831</v>
+        <v>21.34140128290159</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.56939556807368</v>
+        <v>11.69273209785697</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.06687051629937</v>
+        <v>27.12530159819019</v>
       </c>
       <c r="C23">
-        <v>11.13841799576927</v>
+        <v>19.05492895679424</v>
       </c>
       <c r="D23">
-        <v>11.8199349639254</v>
+        <v>9.608886187184609</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.66371018384209</v>
+        <v>19.53939575859376</v>
       </c>
       <c r="G23">
-        <v>22.95809027977729</v>
+        <v>19.44401625683025</v>
       </c>
       <c r="H23">
-        <v>12.72039439876917</v>
+        <v>7.10219577194718</v>
       </c>
       <c r="I23">
-        <v>17.3417030301787</v>
+        <v>8.134074386352021</v>
       </c>
       <c r="J23">
-        <v>11.0165212667478</v>
+        <v>6.305871510235804</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.25004553873293</v>
+        <v>20.9545411592973</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.60000707316005</v>
+        <v>11.65164800137125</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05234677656864</v>
+        <v>25.18675552817442</v>
       </c>
       <c r="C24">
-        <v>10.41208604174223</v>
+        <v>17.74513325919816</v>
       </c>
       <c r="D24">
-        <v>11.76199650858811</v>
+        <v>9.154200052396542</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.74972159455259</v>
+        <v>18.8889109720479</v>
       </c>
       <c r="G24">
-        <v>23.04021129152765</v>
+        <v>18.49078251055031</v>
       </c>
       <c r="H24">
-        <v>12.80100387155337</v>
+        <v>7.179669677052834</v>
       </c>
       <c r="I24">
-        <v>17.54970647902338</v>
+        <v>8.706366159574866</v>
       </c>
       <c r="J24">
-        <v>11.06740321829899</v>
+        <v>6.324934179146538</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.81710583586217</v>
+        <v>19.42589733734365</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.72548171869391</v>
+        <v>11.53667650295782</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.87049492967503</v>
+        <v>22.92019517209631</v>
       </c>
       <c r="C25">
-        <v>9.561582368614641</v>
+        <v>16.21886801284814</v>
       </c>
       <c r="D25">
-        <v>11.70629246321568</v>
+        <v>8.655793836478669</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.87392366772989</v>
+        <v>18.2762146988256</v>
       </c>
       <c r="G25">
-        <v>23.17134862623188</v>
+        <v>17.58556201826445</v>
       </c>
       <c r="H25">
-        <v>12.89749637646021</v>
+        <v>7.296158610662622</v>
       </c>
       <c r="I25">
-        <v>17.79085503259386</v>
+        <v>9.366013453666204</v>
       </c>
       <c r="J25">
-        <v>11.12900022184246</v>
+        <v>6.366318197590408</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.34317179109349</v>
+        <v>17.63957347453711</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.88103600722202</v>
+        <v>11.49269525214835</v>
       </c>
     </row>
   </sheetData>
